--- a/ConsoleApp1/Doc/指数メモ.xlsx
+++ b/ConsoleApp1/Doc/指数メモ.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\ConsoleApp1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3FC91C-4862-4716-90A3-9E605A9CAAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C06F9D3-6740-405C-97A4-61466A981BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="前期比率" sheetId="6" r:id="rId1"/>
-    <sheet name="RSI算出" sheetId="1" r:id="rId2"/>
-    <sheet name="RSI (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="MACD概要" sheetId="7" r:id="rId2"/>
+    <sheet name="MACD算出" sheetId="8" r:id="rId3"/>
+    <sheet name="RSI算出" sheetId="1" r:id="rId4"/>
+    <sheet name="RSI (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>値幅</t>
     <rPh sb="0" eb="2">
@@ -252,17 +254,60 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>楽天証券のMACDは、一般的な設定として以下の期間を使用して算出されています：</t>
+  </si>
+  <si>
+    <t>短期移動平均（EMA）：12日</t>
+  </si>
+  <si>
+    <t>長期移動平均（EMA）：26日</t>
+  </si>
+  <si>
+    <t>ストップライン（MACDの9日移動平均）：9日</t>
+  </si>
+  <si>
+    <t>https://media-kojirokousi.com/exponential-moving-average/#EMA-2</t>
+  </si>
+  <si>
+    <t>EMAは、「昨日のEMA」と「本日の価格」の2つのデータが分かれば計算することができるので、SMAよりもずっと計算が簡単だというメリットもあります。</t>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EMA12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMA12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMA26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EMA26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MACD</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="186" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +326,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +422,15 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -383,6 +446,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>568128</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0367415-BA47-5488-0512-CB5AA15FC39B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="206188" y="1864659"/>
+          <a:ext cx="7964011" cy="3000794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,15 +801,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B9CFBD-52A4-4B0B-8BA0-1BFF0FD0FA59}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -709,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -729,7 +846,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -749,7 +866,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -774,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -799,7 +916,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -826,6 +943,2822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC7D400-E556-472F-BCF7-ACB94FBF5C69}">
+  <dimension ref="B2:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBBE50-550D-4C6D-9387-86B19BE559C3}">
+  <dimension ref="B2:R79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="10.69921875" style="12" customWidth="1"/>
+    <col min="17" max="18" width="8.796875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="11">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20241105</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45601</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2709</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2627</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2653.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9843000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="11">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20241106</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45602</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2655</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2796</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2636</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2729.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>11331100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="11">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20241107</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45603</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2770</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2826.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2739</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2757.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10127200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20241108</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45604</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2824</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2826</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2739.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2739.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5386700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20241111</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45607</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2739.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2764</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2717</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2721.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4601900</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20241112</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45608</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2717</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2736</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2673.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2673.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4736800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20241113</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45609</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2685</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2716</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2674</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2689.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5814300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20241114</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45610</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2719</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2779</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2713</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2729</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7582100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20241115</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45611</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2756</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2786</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2744.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2744.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5873900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20241118</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45614</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2722</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2671.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2671.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4142600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20241119</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45615</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2653</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2679.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2623</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2637</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7004500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20241120</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45616</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2657</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2665</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2621</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2621</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3214100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20241121</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45617</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2610</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2613.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2583.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3293100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20241122</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45618</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2604.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2612.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2582.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2584</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3663000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20241125</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45621</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2614.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2654</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2593</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2626</v>
+      </c>
+      <c r="J17" s="1">
+        <v>8627000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20241126</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45622</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2609.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2537.5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2559</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5774000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20241127</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45623</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2585.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2590.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2502</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2538</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4310100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20241128</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45624</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2513</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2563.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2504.5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2554.5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2594700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20241129</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45625</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2550</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2557</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2525</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2547</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2931500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20241202</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45628</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2548.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2577.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2540</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2568.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3432500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20241203</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45629</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2610</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2680.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2603.5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2654.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5565600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20241204</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45630</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2654.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2687.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2630.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2656</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4913400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20241205</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45631</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2689.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2694</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2638</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2651.5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4912100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20241206</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45632</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2676.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2677</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2616</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2634.5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2918600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20241209</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45635</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2647</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2660.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2581.5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2591</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4180400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20241210</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2655</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2677</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2601.5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2612</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4163200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" s="11">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20241211</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45637</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2650</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2654</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2624</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2645.5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3245400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20241212</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45638</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2691</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2766.5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2685</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2698.5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6151300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20241213</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45639</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2648.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2667.5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2625.5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2634</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5496700</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20241216</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45642</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2635</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2674</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2634.5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2649</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3338300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20241217</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45643</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2640</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2667</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2616.5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2630.5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4115500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20241218</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45644</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2619.5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2647</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2610</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2639.5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3183000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20241219</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45645</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2539.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2626</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2533</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2607</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3572300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20241220</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45646</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2621</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2624.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2591.5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2599</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5298700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20241223</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45649</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2625.5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2666</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2614</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2660</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3149700</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20241224</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45650</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2648</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2660</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2631</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2652.5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1871500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20241225</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45651</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2651</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2661.5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2627</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2661.5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2514300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B40" s="11">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20241226</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45652</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2659</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2680</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2652.5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2680</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3732400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="11">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20241227</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45653</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2680</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2704.5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2675</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2702</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4143500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" s="11">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20241230</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45656</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2714</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2715.5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2673</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2687</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3326700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20250106</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45663</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2692</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2711</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2650.5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2685</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4930900</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D44" s="1">
+        <v>20250107</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45664</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2681.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2698</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2667.5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2675.5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4419400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
+        <v>35</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20250108</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45665</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2643</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2676.5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2631.5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2658.5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3716300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20250109</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45666</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2648.5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2654.5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2577.5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2587</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3456400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20250110</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45667</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2562.5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2595</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2561</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2570.5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3566000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
+        <v>32</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20250114</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45671</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2585.5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2585.5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2529</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2559.5</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4938700</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D49" s="1">
+        <v>20250115</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45672</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2574</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2590.5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2535.5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2547.5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3046400</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20250116</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45673</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2560.5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2577</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2533</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2550</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3124800</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20250117</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45674</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2525</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2550</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2483</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2544</v>
+      </c>
+      <c r="J51" s="1">
+        <v>4971500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B52" s="11">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D52" s="1">
+        <v>20250120</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45677</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2560</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2593</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2551.5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2583.5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2987800</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B53" s="11">
+        <v>27</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20250121</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45678</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2592</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2596.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2551.5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2571.5</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1941800</v>
+      </c>
+      <c r="L53" s="12">
+        <f>SUM(I42:I53)/12</f>
+        <v>2601.625</v>
+      </c>
+      <c r="M53" s="12">
+        <f>SUM(I28:I53)/26</f>
+        <v>2626.5576923076924</v>
+      </c>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13">
+        <f>M53</f>
+        <v>2626.5576923076924</v>
+      </c>
+      <c r="P53" s="12">
+        <f>N53-O53</f>
+        <v>-2626.5576923076924</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B54" s="11">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20250122</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45679</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2598.5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2672</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2598</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2646.5</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5855300</v>
+      </c>
+      <c r="L54" s="12">
+        <f t="shared" ref="L53:L68" si="0">SUM(I43:I54)/12</f>
+        <v>2598.25</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" ref="M53:M77" si="1">SUM(I29:I54)/26</f>
+        <v>2627.8846153846152</v>
+      </c>
+      <c r="O54" s="12">
+        <f>((O53*25)+(I54*2))/27</f>
+        <v>2628.0349002849002</v>
+      </c>
+      <c r="P54" s="12">
+        <f>N54-O54</f>
+        <v>-2628.0349002849002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20250123</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45680</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2677</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2687</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2646.5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2663.5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4003800</v>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="0"/>
+        <v>2596.4583333333335</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="1"/>
+        <v>2628.5769230769229</v>
+      </c>
+      <c r="O55" s="12">
+        <f t="shared" ref="O55:O79" si="2">((O54*25)+(I55*2))/27</f>
+        <v>2630.6619447082408</v>
+      </c>
+      <c r="P55" s="12">
+        <f>N55-O55</f>
+        <v>-2630.6619447082408</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D56" s="1">
+        <v>20250124</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45681</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2687</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2699.5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2653</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2671</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4266000</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="0"/>
+        <v>2596.0833333333335</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="1"/>
+        <v>2627.5192307692309</v>
+      </c>
+      <c r="O56" s="12">
+        <f t="shared" si="2"/>
+        <v>2633.6499488039267</v>
+      </c>
+      <c r="P56" s="12">
+        <f>N56-O56</f>
+        <v>-2633.6499488039267</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20250127</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45684</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2727</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2630</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2638.5</v>
+      </c>
+      <c r="J57" s="1">
+        <v>6898600</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" si="0"/>
+        <v>2594.4166666666665</v>
+      </c>
+      <c r="M57" s="12">
+        <f t="shared" si="1"/>
+        <v>2627.6923076923076</v>
+      </c>
+      <c r="O57" s="12">
+        <f t="shared" si="2"/>
+        <v>2634.0092118554876</v>
+      </c>
+      <c r="P57" s="12">
+        <f>N57-O57</f>
+        <v>-2634.0092118554876</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D58" s="1">
+        <v>20250128</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45685</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2608</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2625</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2573.5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2591</v>
+      </c>
+      <c r="J58" s="1">
+        <v>8431500</v>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" si="0"/>
+        <v>2594.75</v>
+      </c>
+      <c r="M58" s="12">
+        <f t="shared" si="1"/>
+        <v>2625.4615384615386</v>
+      </c>
+      <c r="O58" s="12">
+        <f t="shared" si="2"/>
+        <v>2630.8233443106369</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" ref="P54:P79" si="3">N58-O58</f>
+        <v>-2630.8233443106369</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D59" s="1">
+        <v>20250129</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45686</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2593.5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2599.5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2564</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2577</v>
+      </c>
+      <c r="J59" s="1">
+        <v>5225900</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="0"/>
+        <v>2595.2916666666665</v>
+      </c>
+      <c r="M59" s="12">
+        <f t="shared" si="1"/>
+        <v>2623.4038461538462</v>
+      </c>
+      <c r="O59" s="12">
+        <f t="shared" si="2"/>
+        <v>2626.8364299172563</v>
+      </c>
+      <c r="P59" s="12">
+        <f t="shared" si="3"/>
+        <v>-2626.8364299172563</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20250130</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45687</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2551</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2587.5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2551</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2557</v>
+      </c>
+      <c r="J60" s="1">
+        <v>4727500</v>
+      </c>
+      <c r="L60" s="12">
+        <f t="shared" si="0"/>
+        <v>2595.0833333333335</v>
+      </c>
+      <c r="M60" s="12">
+        <f t="shared" si="1"/>
+        <v>2620.2307692307691</v>
+      </c>
+      <c r="O60" s="12">
+        <f t="shared" si="2"/>
+        <v>2621.6633610344966</v>
+      </c>
+      <c r="P60" s="12">
+        <f t="shared" si="3"/>
+        <v>-2621.6633610344966</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D61" s="1">
+        <v>20250131</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45688</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2551</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2580.5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2542.5</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2571.5</v>
+      </c>
+      <c r="J61" s="1">
+        <v>5999200</v>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="0"/>
+        <v>2597.0833333333335</v>
+      </c>
+      <c r="M61" s="12">
+        <f t="shared" si="1"/>
+        <v>2618.8653846153848</v>
+      </c>
+      <c r="O61" s="12">
+        <f t="shared" si="2"/>
+        <v>2617.9475565134226</v>
+      </c>
+      <c r="P61" s="12">
+        <f t="shared" si="3"/>
+        <v>-2617.9475565134226</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20250203</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45691</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2550.5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2571</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2517</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2546</v>
+      </c>
+      <c r="J62" s="1">
+        <v>6817800</v>
+      </c>
+      <c r="L62" s="12">
+        <f t="shared" si="0"/>
+        <v>2596.75</v>
+      </c>
+      <c r="M62" s="12">
+        <f t="shared" si="1"/>
+        <v>2616.8269230769229</v>
+      </c>
+      <c r="O62" s="12">
+        <f t="shared" si="2"/>
+        <v>2612.6181078827981</v>
+      </c>
+      <c r="P62" s="12">
+        <f t="shared" si="3"/>
+        <v>-2612.6181078827981</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20250204</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45692</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2593</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2595</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2532.5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2561</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5643900</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" si="0"/>
+        <v>2598.1666666666665</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" si="1"/>
+        <v>2613.0192307692309</v>
+      </c>
+      <c r="O63" s="12">
+        <f t="shared" si="2"/>
+        <v>2608.794544335924</v>
+      </c>
+      <c r="P63" s="12">
+        <f t="shared" si="3"/>
+        <v>-2608.794544335924</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B64" s="11">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45693</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2461</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2507.5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2428</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2436</v>
+      </c>
+      <c r="J64" s="1">
+        <v>11325900</v>
+      </c>
+      <c r="L64" s="12">
+        <f t="shared" si="0"/>
+        <v>2585.875</v>
+      </c>
+      <c r="M64" s="12">
+        <f t="shared" si="1"/>
+        <v>2604.6923076923076</v>
+      </c>
+      <c r="O64" s="12">
+        <f t="shared" si="2"/>
+        <v>2595.9949484591889</v>
+      </c>
+      <c r="P64" s="12">
+        <f t="shared" si="3"/>
+        <v>-2595.9949484591889</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B65" s="11">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D65" s="1">
+        <v>20250206</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45694</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2441</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2468</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2420</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2424.5</v>
+      </c>
+      <c r="J65" s="1">
+        <v>6014600</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="0"/>
+        <v>2573.625</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="1"/>
+        <v>2595.5769230769229</v>
+      </c>
+      <c r="O65" s="12">
+        <f t="shared" si="2"/>
+        <v>2583.2916189436937</v>
+      </c>
+      <c r="P65" s="12">
+        <f t="shared" si="3"/>
+        <v>-2583.2916189436937</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B66" s="11">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D66" s="1">
+        <v>20250207</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45695</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2459</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2467</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2416</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2439.5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4369400</v>
+      </c>
+      <c r="L66" s="12">
+        <f t="shared" si="0"/>
+        <v>2556.375</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" si="1"/>
+        <v>2586.3269230769229</v>
+      </c>
+      <c r="O66" s="12">
+        <f t="shared" si="2"/>
+        <v>2572.6403879108279</v>
+      </c>
+      <c r="P66" s="12">
+        <f t="shared" si="3"/>
+        <v>-2572.6403879108279</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20250210</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45698</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2424</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2435</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2396</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2400.5</v>
+      </c>
+      <c r="J67" s="1">
+        <v>4817600</v>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="0"/>
+        <v>2534.4583333333335</v>
+      </c>
+      <c r="M67" s="12">
+        <f t="shared" si="1"/>
+        <v>2574.7307692307691</v>
+      </c>
+      <c r="N67" s="12">
+        <f>L67</f>
+        <v>2534.4583333333335</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="2"/>
+        <v>2559.8892480655813</v>
+      </c>
+      <c r="P67" s="12">
+        <f t="shared" si="3"/>
+        <v>-25.430914732247857</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20250212</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45700</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2424</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2434.5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2404</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2422</v>
+      </c>
+      <c r="J68" s="1">
+        <v>6577900</v>
+      </c>
+      <c r="L68" s="12">
+        <f t="shared" si="0"/>
+        <v>2513.7083333333335</v>
+      </c>
+      <c r="M68" s="12">
+        <f t="shared" si="1"/>
+        <v>2564.5384615384614</v>
+      </c>
+      <c r="N68" s="12">
+        <f t="shared" ref="N55:N79" si="4">((N67*11)+(I68*2))/13</f>
+        <v>2517.1570512820513</v>
+      </c>
+      <c r="O68" s="12">
+        <f t="shared" si="2"/>
+        <v>2549.6752296903528</v>
+      </c>
+      <c r="P68" s="12">
+        <f t="shared" si="3"/>
+        <v>-32.518178408301537</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20250213</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45701</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2425</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2431</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2413.5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2422.5</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4847100</v>
+      </c>
+      <c r="L69" s="12">
+        <f>SUM(I58:I69)/12</f>
+        <v>2495.7083333333335</v>
+      </c>
+      <c r="M69" s="12">
+        <f t="shared" si="1"/>
+        <v>2554.4423076923076</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" si="4"/>
+        <v>2502.5944280078893</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="2"/>
+        <v>2540.2548423058824</v>
+      </c>
+      <c r="P69" s="12">
+        <f t="shared" si="3"/>
+        <v>-37.660414297993157</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D70" s="1">
+        <v>20250214</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45702</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2423.5</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2431.5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2373</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2385.5</v>
+      </c>
+      <c r="J70" s="1">
+        <v>7763700</v>
+      </c>
+      <c r="L70" s="12">
+        <f t="shared" ref="L70:L77" si="5">SUM(I59:I70)/12</f>
+        <v>2478.5833333333335</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="1"/>
+        <v>2543.2884615384614</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="4"/>
+        <v>2484.57990062206</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="2"/>
+        <v>2528.7915206535949</v>
+      </c>
+      <c r="P70" s="12">
+        <f t="shared" si="3"/>
+        <v>-44.211620031534949</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D71" s="1">
+        <v>20250217</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45705</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2390</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2423.5</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2382.5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2398</v>
+      </c>
+      <c r="J71" s="1">
+        <v>5261500</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="5"/>
+        <v>2463.6666666666665</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="1"/>
+        <v>2533.2692307692309</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="4"/>
+        <v>2471.2599159109736</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" si="2"/>
+        <v>2519.1032598644401</v>
+      </c>
+      <c r="P71" s="12">
+        <f t="shared" si="3"/>
+        <v>-47.843343953466501</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20250218</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45706</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2386.5</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2419.5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2382.5</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2382.5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>6407500</v>
+      </c>
+      <c r="L72" s="12">
+        <f t="shared" si="5"/>
+        <v>2449.125</v>
+      </c>
+      <c r="M72" s="12">
+        <f t="shared" si="1"/>
+        <v>2525.4038461538462</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" si="4"/>
+        <v>2457.6045442323625</v>
+      </c>
+      <c r="O72" s="12">
+        <f t="shared" si="2"/>
+        <v>2508.9844998744816</v>
+      </c>
+      <c r="P72" s="12">
+        <f t="shared" si="3"/>
+        <v>-51.379955642119057</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D73" s="1">
+        <v>20250219</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45707</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2370</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2372</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2332</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2366</v>
+      </c>
+      <c r="J73" s="1">
+        <v>10222300</v>
+      </c>
+      <c r="L73" s="12">
+        <f t="shared" si="5"/>
+        <v>2432</v>
+      </c>
+      <c r="M73" s="12">
+        <f t="shared" si="1"/>
+        <v>2517.5384615384614</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" si="4"/>
+        <v>2443.5115374273837</v>
+      </c>
+      <c r="O73" s="12">
+        <f t="shared" si="2"/>
+        <v>2498.3930554393351</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" si="3"/>
+        <v>-54.881518011951357</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20250220</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45708</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2351</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2365.5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2331.5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2364</v>
+      </c>
+      <c r="J74" s="1">
+        <v>8266300</v>
+      </c>
+      <c r="L74" s="12">
+        <f t="shared" si="5"/>
+        <v>2416.8333333333335</v>
+      </c>
+      <c r="M74" s="12">
+        <f t="shared" si="1"/>
+        <v>2510.0192307692309</v>
+      </c>
+      <c r="N74" s="12">
+        <f t="shared" si="4"/>
+        <v>2431.2789932077862</v>
+      </c>
+      <c r="O74" s="12">
+        <f t="shared" si="2"/>
+        <v>2488.4380142956807</v>
+      </c>
+      <c r="P74" s="12">
+        <f t="shared" si="3"/>
+        <v>-57.159021087894416</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20250221</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45709</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2327</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2367</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2323</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2364</v>
+      </c>
+      <c r="J75" s="1">
+        <v>7466000</v>
+      </c>
+      <c r="L75" s="12">
+        <f t="shared" si="5"/>
+        <v>2400.4166666666665</v>
+      </c>
+      <c r="M75" s="12">
+        <f t="shared" si="1"/>
+        <v>2502.9615384615386</v>
+      </c>
+      <c r="N75" s="12">
+        <f t="shared" si="4"/>
+        <v>2420.9283788681269</v>
+      </c>
+      <c r="O75" s="12">
+        <f t="shared" si="2"/>
+        <v>2479.2203836071121</v>
+      </c>
+      <c r="P75" s="12">
+        <f t="shared" si="3"/>
+        <v>-58.29200473898527</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20250225</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45713</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2336</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2401.5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2328</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2383.5</v>
+      </c>
+      <c r="J76" s="1">
+        <v>8275200</v>
+      </c>
+      <c r="L76" s="12">
+        <f t="shared" si="5"/>
+        <v>2396.0416666666665</v>
+      </c>
+      <c r="M76" s="12">
+        <f t="shared" si="1"/>
+        <v>2496.5576923076924</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" si="4"/>
+        <v>2415.1701667345687</v>
+      </c>
+      <c r="O76" s="12">
+        <f t="shared" si="2"/>
+        <v>2472.1299848213998</v>
+      </c>
+      <c r="P76" s="12">
+        <f t="shared" si="3"/>
+        <v>-56.959818086831092</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B77" s="11">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D77" s="1">
+        <v>20250226</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45714</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2383</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2383</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2305.5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2337.5</v>
+      </c>
+      <c r="J77" s="1">
+        <v>6644600</v>
+      </c>
+      <c r="L77" s="12">
+        <f t="shared" si="5"/>
+        <v>2388.7916666666665</v>
+      </c>
+      <c r="M77" s="12">
+        <f t="shared" si="1"/>
+        <v>2488.6153846153848</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" si="4"/>
+        <v>2403.2209103138657</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="2"/>
+        <v>2462.1573933531481</v>
+      </c>
+      <c r="P77" s="12">
+        <f t="shared" si="3"/>
+        <v>-58.936483039282393</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D78" s="1">
+        <v>20250227</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45715</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2337.5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2371</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2320.5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2371</v>
+      </c>
+      <c r="J78" s="1">
+        <v>5753400</v>
+      </c>
+      <c r="L78" s="12">
+        <f>SUM(I67:I78)/12</f>
+        <v>2383.0833333333335</v>
+      </c>
+      <c r="M78" s="12">
+        <f>SUM(I53:I78)/26</f>
+        <v>2480.4423076923076</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="4"/>
+        <v>2398.2638471886557</v>
+      </c>
+      <c r="O78" s="12">
+        <f t="shared" si="2"/>
+        <v>2455.4049938455078</v>
+      </c>
+      <c r="P78" s="12">
+        <f t="shared" si="3"/>
+        <v>-57.141146656852015</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6503</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20250228</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45716</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2345</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2364</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2294</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2307</v>
+      </c>
+      <c r="J79" s="1">
+        <v>8934200</v>
+      </c>
+      <c r="L79" s="12">
+        <f>SUM(I68:I79)/12</f>
+        <v>2375.2916666666665</v>
+      </c>
+      <c r="M79" s="12">
+        <f>SUM(I54:I79)/26</f>
+        <v>2470.2692307692309</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" si="4"/>
+        <v>2384.2232553134777</v>
+      </c>
+      <c r="O79" s="12">
+        <f t="shared" si="2"/>
+        <v>2444.4120313384333</v>
+      </c>
+      <c r="P79" s="12">
+        <f t="shared" si="3"/>
+        <v>-60.188776024955587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A58A4-C2A6-49DB-AAB8-86A91D2B00F8}">
   <dimension ref="B1:R27"/>
   <sheetViews>
@@ -834,17 +3767,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -857,7 +3790,7 @@
       </c>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" s="3">
         <v>14</v>
       </c>
@@ -892,7 +3825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>6503</v>
       </c>
@@ -918,7 +3851,7 @@
         <v>3432500</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>6503</v>
       </c>
@@ -956,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>6503</v>
       </c>
@@ -994,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>6503</v>
       </c>
@@ -1032,7 +3965,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>6503</v>
       </c>
@@ -1070,7 +4003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>6503</v>
       </c>
@@ -1108,7 +4041,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>6503</v>
       </c>
@@ -1146,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
         <v>6503</v>
       </c>
@@ -1184,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>6503</v>
       </c>
@@ -1222,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>6503</v>
       </c>
@@ -1260,7 +4193,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>6503</v>
       </c>
@@ -1298,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>6503</v>
       </c>
@@ -1337,7 +4270,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>6503</v>
       </c>
@@ -1376,7 +4309,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>6503</v>
       </c>
@@ -1438,7 +4371,7 @@
         <v>54.818523153942436</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>6503</v>
       </c>
@@ -1500,7 +4433,7 @@
         <v>53.661294882668933</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>6503</v>
       </c>
@@ -1562,7 +4495,7 @@
         <v>60.507244138271908</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>6503</v>
       </c>
@@ -1624,7 +4557,7 @@
         <v>59.346330889979129</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>6503</v>
       </c>
@@ -1686,7 +4619,7 @@
         <v>60.32993699139152</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>6503</v>
       </c>
@@ -1748,7 +4681,7 @@
         <v>62.346627476970575</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>6503</v>
       </c>
@@ -1810,7 +4743,7 @@
         <v>64.648194339265402</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>6503</v>
       </c>
@@ -1872,20 +4805,20 @@
         <v>61.871282482202908</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1897,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130C24E-319C-4123-8BC2-E941AD5F00AA}">
   <dimension ref="B1:R24"/>
   <sheetViews>
@@ -1906,17 +4839,17 @@
       <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +4862,7 @@
       </c>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" s="3">
         <v>14</v>
       </c>
@@ -1964,7 +4897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>6503</v>
       </c>
@@ -1990,7 +4923,7 @@
         <v>3432500</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>6503</v>
       </c>
@@ -2028,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>6503</v>
       </c>
@@ -2066,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>6503</v>
       </c>
@@ -2104,7 +5037,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>6503</v>
       </c>
@@ -2142,7 +5075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>6503</v>
       </c>
@@ -2180,7 +5113,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>6503</v>
       </c>
@@ -2218,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
         <v>6503</v>
       </c>
@@ -2256,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>6503</v>
       </c>
@@ -2294,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>6503</v>
       </c>
@@ -2332,7 +5265,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>6503</v>
       </c>
@@ -2370,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>6503</v>
       </c>
@@ -2409,7 +5342,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>6503</v>
       </c>
@@ -2448,7 +5381,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>6503</v>
       </c>
@@ -2510,7 +5443,7 @@
         <v>54.818523153942436</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>6503</v>
       </c>
@@ -2572,7 +5505,7 @@
         <v>53.661294882668933</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>6503</v>
       </c>
@@ -2634,7 +5567,7 @@
         <v>60.507244138271908</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>6503</v>
       </c>
@@ -2696,7 +5629,7 @@
         <v>59.346330889979129</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>6503</v>
       </c>
@@ -2758,7 +5691,7 @@
         <v>60.32993699139152</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>6503</v>
       </c>
@@ -2820,7 +5753,7 @@
         <v>62.346627476970575</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>6503</v>
       </c>
@@ -2882,7 +5815,7 @@
         <v>64.648194339265402</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>6503</v>
       </c>
@@ -2944,7 +5877,7 @@
         <v>61.871282482202908</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="M24" s="4"/>
     </row>
   </sheetData>

--- a/ConsoleApp1/Doc/指数メモ.xlsx
+++ b/ConsoleApp1/Doc/指数メモ.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\ConsoleApp1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C06F9D3-6740-405C-97A4-61466A981BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783831DD-0AB6-4AAA-AB1E-10E42A010182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="前期比率" sheetId="6" r:id="rId1"/>
     <sheet name="MACD概要" sheetId="7" r:id="rId2"/>
     <sheet name="MACD算出" sheetId="8" r:id="rId3"/>
-    <sheet name="RSI算出" sheetId="1" r:id="rId4"/>
-    <sheet name="RSI (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="グランビルの法則" sheetId="9" r:id="rId4"/>
+    <sheet name="RSI算出" sheetId="1" r:id="rId5"/>
+    <sheet name="RSI (2)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>値幅</t>
     <rPh sb="0" eb="2">
@@ -296,6 +297,61 @@
     <t>MACD</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>グランビルの法則とは｜全8パターンの活用法と移動平均線の見方、ダウ理論との関係をかんたん解説 | LIVE出版オンライン(Trade Labo MEDIA版)</t>
+  </si>
+  <si>
+    <t>Granville's Law</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①移動平均値より低い値から乖離値を縮小してきて、移動平均値を突き抜けた。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均値</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンアタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乖離値</t>
+    <rPh sb="0" eb="3">
+      <t>カイリアタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・乖離値がマイナス開始、プラス終了となっている。</t>
+    <rPh sb="1" eb="4">
+      <t>カイリアタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・乖離値が減少していない。</t>
+    <rPh sb="1" eb="4">
+      <t>カイリアタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -305,9 +361,9 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="186" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +391,15 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -383,12 +448,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,14 +493,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,6 +567,143 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243841</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>212295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86875BB-941A-00D0-0F68-6455BBADCAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="205741" y="914401"/>
+          <a:ext cx="3596640" cy="2041094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D299992-35BC-4B55-9343-EC58A1E18863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4229100" y="914400"/>
+          <a:ext cx="2682240" cy="1897171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -996,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBBE50-550D-4C6D-9387-86B19BE559C3}">
   <dimension ref="B2:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -2559,11 +2768,11 @@
         <v>5855300</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" ref="L53:L68" si="0">SUM(I43:I54)/12</f>
+        <f t="shared" ref="L54:L68" si="0">SUM(I43:I54)/12</f>
         <v>2598.25</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" ref="M53:M77" si="1">SUM(I29:I54)/26</f>
+        <f t="shared" ref="M54:M77" si="1">SUM(I29:I54)/26</f>
         <v>2627.8846153846152</v>
       </c>
       <c r="O54" s="12">
@@ -2751,7 +2960,7 @@
         <v>2630.8233443106369</v>
       </c>
       <c r="P58" s="12">
-        <f t="shared" ref="P54:P79" si="3">N58-O58</f>
+        <f t="shared" ref="P58:P79" si="3">N58-O58</f>
         <v>-2630.8233443106369</v>
       </c>
     </row>
@@ -3201,7 +3410,7 @@
         <v>2564.5384615384614</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" ref="N55:N79" si="4">((N67*11)+(I68*2))/13</f>
+        <f t="shared" ref="N68:N79" si="4">((N67*11)+(I68*2))/13</f>
         <v>2517.1570512820513</v>
       </c>
       <c r="O68" s="12">
@@ -3759,6 +3968,149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1114978E-45C2-4ED7-82DC-8AB4C8E25BF4}">
+  <dimension ref="B2:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <f>B18-C18</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D24" si="0">B19-C19</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="index_id1" display="https://live-publishing.jp/finance/?p=18462 - index_id1" xr:uid="{910FFEEA-F3F5-4FC5-BB27-192E35E9CEB0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A58A4-C2A6-49DB-AAB8-86A91D2B00F8}">
   <dimension ref="B1:R27"/>
   <sheetViews>
@@ -4830,7 +5182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130C24E-319C-4123-8BC2-E941AD5F00AA}">
   <dimension ref="B1:R24"/>
   <sheetViews>

--- a/ConsoleApp1/Doc/指数メモ.xlsx
+++ b/ConsoleApp1/Doc/指数メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\ConsoleApp1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783831DD-0AB6-4AAA-AB1E-10E42A010182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761C791-24DE-4CE9-A4C3-5C5595E955DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>値幅</t>
     <rPh sb="0" eb="2">
@@ -349,6 +349,16 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②乖離地がプラスからマイナスとなり、再びプラスとなった。</t>
+    <rPh sb="1" eb="4">
+      <t>カイリチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フタタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3969,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1114978E-45C2-4ED7-82DC-8AB4C8E25BF4}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4098,6 +4108,106 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <f>B32-C32</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D38" si="1">B33-C33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleApp1/Doc/指数メモ.xlsx
+++ b/ConsoleApp1/Doc/指数メモ.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\ConsoleApp1\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sator\source\repos\OptimalTraderDraft\33\ConsoleApp1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761C791-24DE-4CE9-A4C3-5C5595E955DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D75D5-F64A-41D8-BB8F-632C24C2D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="前期比率" sheetId="6" r:id="rId1"/>
     <sheet name="MACD概要" sheetId="7" r:id="rId2"/>
     <sheet name="MACD算出" sheetId="8" r:id="rId3"/>
     <sheet name="グランビルの法則" sheetId="9" r:id="rId4"/>
-    <sheet name="RSI算出" sheetId="1" r:id="rId5"/>
-    <sheet name="RSI (2)" sheetId="5" r:id="rId6"/>
+    <sheet name="PEGレシオ" sheetId="10" r:id="rId5"/>
+    <sheet name="RSI算出" sheetId="1" r:id="rId6"/>
+    <sheet name="RSI (2)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>値幅</t>
     <rPh sb="0" eb="2">
@@ -362,6 +363,107 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>PEGレシオ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利益成長率</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイチョウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今期予想</t>
+    <rPh sb="0" eb="2">
+      <t>コンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一株益</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトカブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PEGレシオは**「PER（株価収益率）÷ 1株当たりの利益成長率」**で計算されます。</t>
+  </si>
+  <si>
+    <t>例として、PERが30倍で1株当たりの利益成長率が20%の企業の場合、PEGレシオは1.5倍となります。</t>
+  </si>
+  <si>
+    <t>一般的にPEGレシオが1を下回ると割安、2を上回ると割高と判断され、企業の成長性を考慮した株価の割安性を測る指標です。﻿</t>
+  </si>
+  <si>
+    <t>計算方法</t>
+  </si>
+  <si>
+    <t>PER（株価収益率）の算出:</t>
+  </si>
+  <si>
+    <t>現在の株価 ÷ 1株当たりの予想利益（EPS）で求められます。﻿</t>
+  </si>
+  <si>
+    <t>1株当たりの利益成長率（EPS成長率）の算出:</t>
+  </si>
+  <si>
+    <t>企業の将来的な1株当たりの利益がどれくらい増加するかを示す数値です。﻿</t>
+  </si>
+  <si>
+    <t>PEGレシオの算出:</t>
+  </si>
+  <si>
+    <t>「PER ÷ 1株当たりの利益成長率」の計算式で算出します。﻿</t>
+  </si>
+  <si>
+    <t>計算例﻿</t>
+  </si>
+  <si>
+    <t>ある企業のPERが25倍</t>
+  </si>
+  <si>
+    <t>予想EPS成長率が40%</t>
+  </si>
+  <si>
+    <t>この場合、PEGレシオは「25 ÷ 40 = 0.63」となり、PEGレシオが1を下回っているため割安と判断されます。﻿</t>
+  </si>
+  <si>
+    <t>PEGレシオの目安</t>
+  </si>
+  <si>
+    <t>1未満:成長性に対して株価が割安。﻿</t>
+  </si>
+  <si>
+    <t>1以上:成長性に対して株価が割高、または妥当と判断される。﻿</t>
+  </si>
+  <si>
+    <t>2以上:株価が割高と判断されることが多い。﻿</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+  </si>
+  <si>
+    <t>PEGレシオは利益成長を前提とした指標であり、減益決算の企業では計算ができない、または意味をなさない場合があるため注意が必要です。﻿</t>
+  </si>
+  <si>
+    <t>成長性の高い企業（特にテクノロジー企業など）の株価の割安性を判断する際に有効な指標です。﻿</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +475,7 @@
     <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +512,15 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -485,13 +596,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -510,6 +618,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,19 +1160,19 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>-10</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>-10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>10</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>-10</v>
       </c>
     </row>
@@ -1069,19 +1180,19 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>20</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>-5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>-20</v>
       </c>
     </row>
@@ -1089,23 +1200,23 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f>(C4/C3)-1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>(D4/D3)-1</f>
         <v>-3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>(E4/E3)-1</f>
         <v>-0.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>(F4/F3)-1</f>
         <v>-0.5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>(G4/G3)-1</f>
         <v>1</v>
       </c>
@@ -1114,23 +1225,23 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f>IF(C3&gt;=0,C5,C5*(-1))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f>IF(D3&gt;=0,D5,D5*(-1))</f>
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>IF(E3&gt;=0,E5,E5*(-1))</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>IF(F3&gt;=0,F5,F5*(-1))</f>
         <v>-0.5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>IF(G3&gt;=0,G5,G5*(-1))</f>
         <v>-1</v>
       </c>
@@ -1223,38 +1334,38 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="3.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="10.69921875" style="12" customWidth="1"/>
-    <col min="17" max="18" width="8.796875" style="12"/>
+    <col min="12" max="16" width="10.69921875" style="11" customWidth="1"/>
+    <col min="17" max="18" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>77</v>
       </c>
       <c r="C3" s="1">
@@ -1283,7 +1394,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>76</v>
       </c>
       <c r="C4" s="1">
@@ -1312,7 +1423,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>75</v>
       </c>
       <c r="C5" s="1">
@@ -1341,7 +1452,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>74</v>
       </c>
       <c r="C6" s="1">
@@ -1370,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>73</v>
       </c>
       <c r="C7" s="1">
@@ -1399,7 +1510,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>72</v>
       </c>
       <c r="C8" s="1">
@@ -1428,7 +1539,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>71</v>
       </c>
       <c r="C9" s="1">
@@ -1457,7 +1568,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>70</v>
       </c>
       <c r="C10" s="1">
@@ -1486,7 +1597,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>69</v>
       </c>
       <c r="C11" s="1">
@@ -1515,7 +1626,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>68</v>
       </c>
       <c r="C12" s="1">
@@ -1544,7 +1655,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>67</v>
       </c>
       <c r="C13" s="1">
@@ -1573,7 +1684,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>66</v>
       </c>
       <c r="C14" s="1">
@@ -1602,7 +1713,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>65</v>
       </c>
       <c r="C15" s="1">
@@ -1631,7 +1742,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>64</v>
       </c>
       <c r="C16" s="1">
@@ -1660,7 +1771,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>63</v>
       </c>
       <c r="C17" s="1">
@@ -1689,7 +1800,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>62</v>
       </c>
       <c r="C18" s="1">
@@ -1718,7 +1829,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>61</v>
       </c>
       <c r="C19" s="1">
@@ -1747,7 +1858,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>60</v>
       </c>
       <c r="C20" s="1">
@@ -1776,7 +1887,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>59</v>
       </c>
       <c r="C21" s="1">
@@ -1805,7 +1916,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>58</v>
       </c>
       <c r="C22" s="1">
@@ -1834,7 +1945,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>57</v>
       </c>
       <c r="C23" s="1">
@@ -1863,7 +1974,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>56</v>
       </c>
       <c r="C24" s="1">
@@ -1892,7 +2003,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>55</v>
       </c>
       <c r="C25" s="1">
@@ -1921,7 +2032,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>54</v>
       </c>
       <c r="C26" s="1">
@@ -1950,7 +2061,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>53</v>
       </c>
       <c r="C27" s="1">
@@ -1979,7 +2090,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>52</v>
       </c>
       <c r="C28" s="1">
@@ -2008,7 +2119,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>51</v>
       </c>
       <c r="C29" s="1">
@@ -2037,7 +2148,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>50</v>
       </c>
       <c r="C30" s="1">
@@ -2066,7 +2177,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>49</v>
       </c>
       <c r="C31" s="1">
@@ -2095,7 +2206,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>48</v>
       </c>
       <c r="C32" s="1">
@@ -2124,7 +2235,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>47</v>
       </c>
       <c r="C33" s="1">
@@ -2153,7 +2264,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>46</v>
       </c>
       <c r="C34" s="1">
@@ -2182,7 +2293,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>45</v>
       </c>
       <c r="C35" s="1">
@@ -2211,7 +2322,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>44</v>
       </c>
       <c r="C36" s="1">
@@ -2240,7 +2351,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>43</v>
       </c>
       <c r="C37" s="1">
@@ -2269,7 +2380,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>42</v>
       </c>
       <c r="C38" s="1">
@@ -2298,7 +2409,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>41</v>
       </c>
       <c r="C39" s="1">
@@ -2327,7 +2438,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>40</v>
       </c>
       <c r="C40" s="1">
@@ -2356,7 +2467,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>39</v>
       </c>
       <c r="C41" s="1">
@@ -2385,7 +2496,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>38</v>
       </c>
       <c r="C42" s="1">
@@ -2414,7 +2525,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>37</v>
       </c>
       <c r="C43" s="1">
@@ -2443,7 +2554,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>36</v>
       </c>
       <c r="C44" s="1">
@@ -2472,7 +2583,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>35</v>
       </c>
       <c r="C45" s="1">
@@ -2501,7 +2612,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>34</v>
       </c>
       <c r="C46" s="1">
@@ -2530,7 +2641,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>33</v>
       </c>
       <c r="C47" s="1">
@@ -2559,7 +2670,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>32</v>
       </c>
       <c r="C48" s="1">
@@ -2588,7 +2699,7 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>31</v>
       </c>
       <c r="C49" s="1">
@@ -2617,7 +2728,7 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>30</v>
       </c>
       <c r="C50" s="1">
@@ -2646,7 +2757,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>29</v>
       </c>
       <c r="C51" s="1">
@@ -2675,7 +2786,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>28</v>
       </c>
       <c r="C52" s="1">
@@ -2704,7 +2815,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>27</v>
       </c>
       <c r="C53" s="1">
@@ -2731,26 +2842,26 @@
       <c r="J53" s="1">
         <v>1941800</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="11">
         <f>SUM(I42:I53)/12</f>
         <v>2601.625</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="11">
         <f>SUM(I28:I53)/26</f>
         <v>2626.5576923076924</v>
       </c>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13">
+      <c r="N53" s="12"/>
+      <c r="O53" s="12">
         <f>M53</f>
         <v>2626.5576923076924</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="11">
         <f>N53-O53</f>
         <v>-2626.5576923076924</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>26</v>
       </c>
       <c r="C54" s="1">
@@ -2777,25 +2888,25 @@
       <c r="J54" s="1">
         <v>5855300</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="11">
         <f t="shared" ref="L54:L68" si="0">SUM(I43:I54)/12</f>
         <v>2598.25</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="11">
         <f t="shared" ref="M54:M77" si="1">SUM(I29:I54)/26</f>
         <v>2627.8846153846152</v>
       </c>
-      <c r="O54" s="12">
+      <c r="O54" s="11">
         <f>((O53*25)+(I54*2))/27</f>
         <v>2628.0349002849002</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="11">
         <f>N54-O54</f>
         <v>-2628.0349002849002</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>25</v>
       </c>
       <c r="C55" s="1">
@@ -2822,25 +2933,25 @@
       <c r="J55" s="1">
         <v>4003800</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="11">
         <f t="shared" si="0"/>
         <v>2596.4583333333335</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="11">
         <f t="shared" si="1"/>
         <v>2628.5769230769229</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" s="11">
         <f t="shared" ref="O55:O79" si="2">((O54*25)+(I55*2))/27</f>
         <v>2630.6619447082408</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="11">
         <f>N55-O55</f>
         <v>-2630.6619447082408</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>24</v>
       </c>
       <c r="C56" s="1">
@@ -2867,25 +2978,25 @@
       <c r="J56" s="1">
         <v>4266000</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="11">
         <f t="shared" si="0"/>
         <v>2596.0833333333335</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="11">
         <f t="shared" si="1"/>
         <v>2627.5192307692309</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="11">
         <f t="shared" si="2"/>
         <v>2633.6499488039267</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="11">
         <f>N56-O56</f>
         <v>-2633.6499488039267</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>23</v>
       </c>
       <c r="C57" s="1">
@@ -2912,25 +3023,25 @@
       <c r="J57" s="1">
         <v>6898600</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <f t="shared" si="0"/>
         <v>2594.4166666666665</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="11">
         <f t="shared" si="1"/>
         <v>2627.6923076923076</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="11">
         <f t="shared" si="2"/>
         <v>2634.0092118554876</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="11">
         <f>N57-O57</f>
         <v>-2634.0092118554876</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>22</v>
       </c>
       <c r="C58" s="1">
@@ -2957,25 +3068,25 @@
       <c r="J58" s="1">
         <v>8431500</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <f t="shared" si="0"/>
         <v>2594.75</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="11">
         <f t="shared" si="1"/>
         <v>2625.4615384615386</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="11">
         <f t="shared" si="2"/>
         <v>2630.8233443106369</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="11">
         <f t="shared" ref="P58:P79" si="3">N58-O58</f>
         <v>-2630.8233443106369</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>21</v>
       </c>
       <c r="C59" s="1">
@@ -3002,25 +3113,25 @@
       <c r="J59" s="1">
         <v>5225900</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="11">
         <f t="shared" si="0"/>
         <v>2595.2916666666665</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="11">
         <f t="shared" si="1"/>
         <v>2623.4038461538462</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="11">
         <f t="shared" si="2"/>
         <v>2626.8364299172563</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="11">
         <f t="shared" si="3"/>
         <v>-2626.8364299172563</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>20</v>
       </c>
       <c r="C60" s="1">
@@ -3047,25 +3158,25 @@
       <c r="J60" s="1">
         <v>4727500</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <f t="shared" si="0"/>
         <v>2595.0833333333335</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="11">
         <f t="shared" si="1"/>
         <v>2620.2307692307691</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="11">
         <f t="shared" si="2"/>
         <v>2621.6633610344966</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="11">
         <f t="shared" si="3"/>
         <v>-2621.6633610344966</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>19</v>
       </c>
       <c r="C61" s="1">
@@ -3092,25 +3203,25 @@
       <c r="J61" s="1">
         <v>5999200</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="11">
         <f t="shared" si="0"/>
         <v>2597.0833333333335</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="11">
         <f t="shared" si="1"/>
         <v>2618.8653846153848</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" s="11">
         <f t="shared" si="2"/>
         <v>2617.9475565134226</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="11">
         <f t="shared" si="3"/>
         <v>-2617.9475565134226</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>18</v>
       </c>
       <c r="C62" s="1">
@@ -3137,25 +3248,25 @@
       <c r="J62" s="1">
         <v>6817800</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="11">
         <f t="shared" si="0"/>
         <v>2596.75</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="11">
         <f t="shared" si="1"/>
         <v>2616.8269230769229</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="11">
         <f t="shared" si="2"/>
         <v>2612.6181078827981</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="11">
         <f t="shared" si="3"/>
         <v>-2612.6181078827981</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>17</v>
       </c>
       <c r="C63" s="1">
@@ -3182,25 +3293,25 @@
       <c r="J63" s="1">
         <v>5643900</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="11">
         <f t="shared" si="0"/>
         <v>2598.1666666666665</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M63" s="11">
         <f t="shared" si="1"/>
         <v>2613.0192307692309</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O63" s="11">
         <f t="shared" si="2"/>
         <v>2608.794544335924</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63" s="11">
         <f t="shared" si="3"/>
         <v>-2608.794544335924</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>16</v>
       </c>
       <c r="C64" s="1">
@@ -3227,25 +3338,25 @@
       <c r="J64" s="1">
         <v>11325900</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="11">
         <f t="shared" si="0"/>
         <v>2585.875</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="11">
         <f t="shared" si="1"/>
         <v>2604.6923076923076</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O64" s="11">
         <f t="shared" si="2"/>
         <v>2595.9949484591889</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64" s="11">
         <f t="shared" si="3"/>
         <v>-2595.9949484591889</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>15</v>
       </c>
       <c r="C65" s="1">
@@ -3272,25 +3383,25 @@
       <c r="J65" s="1">
         <v>6014600</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="11">
         <f t="shared" si="0"/>
         <v>2573.625</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="11">
         <f t="shared" si="1"/>
         <v>2595.5769230769229</v>
       </c>
-      <c r="O65" s="12">
+      <c r="O65" s="11">
         <f t="shared" si="2"/>
         <v>2583.2916189436937</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65" s="11">
         <f t="shared" si="3"/>
         <v>-2583.2916189436937</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>14</v>
       </c>
       <c r="C66" s="1">
@@ -3317,25 +3428,25 @@
       <c r="J66" s="1">
         <v>4369400</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="11">
         <f t="shared" si="0"/>
         <v>2556.375</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="11">
         <f t="shared" si="1"/>
         <v>2586.3269230769229</v>
       </c>
-      <c r="O66" s="12">
+      <c r="O66" s="11">
         <f t="shared" si="2"/>
         <v>2572.6403879108279</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="11">
         <f t="shared" si="3"/>
         <v>-2572.6403879108279</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>13</v>
       </c>
       <c r="C67" s="1">
@@ -3362,29 +3473,29 @@
       <c r="J67" s="1">
         <v>4817600</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="11">
         <f t="shared" si="0"/>
         <v>2534.4583333333335</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="11">
         <f t="shared" si="1"/>
         <v>2574.7307692307691</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="11">
         <f>L67</f>
         <v>2534.4583333333335</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="11">
         <f t="shared" si="2"/>
         <v>2559.8892480655813</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="11">
         <f t="shared" si="3"/>
         <v>-25.430914732247857</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>12</v>
       </c>
       <c r="C68" s="1">
@@ -3411,29 +3522,29 @@
       <c r="J68" s="1">
         <v>6577900</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="11">
         <f t="shared" si="0"/>
         <v>2513.7083333333335</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M68" s="11">
         <f t="shared" si="1"/>
         <v>2564.5384615384614</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="11">
         <f t="shared" ref="N68:N79" si="4">((N67*11)+(I68*2))/13</f>
         <v>2517.1570512820513</v>
       </c>
-      <c r="O68" s="12">
+      <c r="O68" s="11">
         <f t="shared" si="2"/>
         <v>2549.6752296903528</v>
       </c>
-      <c r="P68" s="12">
+      <c r="P68" s="11">
         <f t="shared" si="3"/>
         <v>-32.518178408301537</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>11</v>
       </c>
       <c r="C69" s="1">
@@ -3460,29 +3571,29 @@
       <c r="J69" s="1">
         <v>4847100</v>
       </c>
-      <c r="L69" s="12">
+      <c r="L69" s="11">
         <f>SUM(I58:I69)/12</f>
         <v>2495.7083333333335</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="11">
         <f t="shared" si="1"/>
         <v>2554.4423076923076</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="11">
         <f t="shared" si="4"/>
         <v>2502.5944280078893</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" s="11">
         <f t="shared" si="2"/>
         <v>2540.2548423058824</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P69" s="11">
         <f t="shared" si="3"/>
         <v>-37.660414297993157</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>10</v>
       </c>
       <c r="C70" s="1">
@@ -3509,29 +3620,29 @@
       <c r="J70" s="1">
         <v>7763700</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <f t="shared" ref="L70:L77" si="5">SUM(I59:I70)/12</f>
         <v>2478.5833333333335</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="11">
         <f t="shared" si="1"/>
         <v>2543.2884615384614</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="11">
         <f t="shared" si="4"/>
         <v>2484.57990062206</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="11">
         <f t="shared" si="2"/>
         <v>2528.7915206535949</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="11">
         <f t="shared" si="3"/>
         <v>-44.211620031534949</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>9</v>
       </c>
       <c r="C71" s="1">
@@ -3558,29 +3669,29 @@
       <c r="J71" s="1">
         <v>5261500</v>
       </c>
-      <c r="L71" s="12">
+      <c r="L71" s="11">
         <f t="shared" si="5"/>
         <v>2463.6666666666665</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="11">
         <f t="shared" si="1"/>
         <v>2533.2692307692309</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="11">
         <f t="shared" si="4"/>
         <v>2471.2599159109736</v>
       </c>
-      <c r="O71" s="12">
+      <c r="O71" s="11">
         <f t="shared" si="2"/>
         <v>2519.1032598644401</v>
       </c>
-      <c r="P71" s="12">
+      <c r="P71" s="11">
         <f t="shared" si="3"/>
         <v>-47.843343953466501</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>8</v>
       </c>
       <c r="C72" s="1">
@@ -3607,29 +3718,29 @@
       <c r="J72" s="1">
         <v>6407500</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="11">
         <f t="shared" si="5"/>
         <v>2449.125</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="11">
         <f t="shared" si="1"/>
         <v>2525.4038461538462</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="11">
         <f t="shared" si="4"/>
         <v>2457.6045442323625</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="11">
         <f t="shared" si="2"/>
         <v>2508.9844998744816</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="11">
         <f t="shared" si="3"/>
         <v>-51.379955642119057</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>7</v>
       </c>
       <c r="C73" s="1">
@@ -3656,29 +3767,29 @@
       <c r="J73" s="1">
         <v>10222300</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L73" s="11">
         <f t="shared" si="5"/>
         <v>2432</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="11">
         <f t="shared" si="1"/>
         <v>2517.5384615384614</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="11">
         <f t="shared" si="4"/>
         <v>2443.5115374273837</v>
       </c>
-      <c r="O73" s="12">
+      <c r="O73" s="11">
         <f t="shared" si="2"/>
         <v>2498.3930554393351</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P73" s="11">
         <f t="shared" si="3"/>
         <v>-54.881518011951357</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>6</v>
       </c>
       <c r="C74" s="1">
@@ -3705,29 +3816,29 @@
       <c r="J74" s="1">
         <v>8266300</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="11">
         <f t="shared" si="5"/>
         <v>2416.8333333333335</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="11">
         <f t="shared" si="1"/>
         <v>2510.0192307692309</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="11">
         <f t="shared" si="4"/>
         <v>2431.2789932077862</v>
       </c>
-      <c r="O74" s="12">
+      <c r="O74" s="11">
         <f t="shared" si="2"/>
         <v>2488.4380142956807</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P74" s="11">
         <f t="shared" si="3"/>
         <v>-57.159021087894416</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>5</v>
       </c>
       <c r="C75" s="1">
@@ -3754,29 +3865,29 @@
       <c r="J75" s="1">
         <v>7466000</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="11">
         <f t="shared" si="5"/>
         <v>2400.4166666666665</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="11">
         <f t="shared" si="1"/>
         <v>2502.9615384615386</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="11">
         <f t="shared" si="4"/>
         <v>2420.9283788681269</v>
       </c>
-      <c r="O75" s="12">
+      <c r="O75" s="11">
         <f t="shared" si="2"/>
         <v>2479.2203836071121</v>
       </c>
-      <c r="P75" s="12">
+      <c r="P75" s="11">
         <f t="shared" si="3"/>
         <v>-58.29200473898527</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>4</v>
       </c>
       <c r="C76" s="1">
@@ -3803,29 +3914,29 @@
       <c r="J76" s="1">
         <v>8275200</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="11">
         <f t="shared" si="5"/>
         <v>2396.0416666666665</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="11">
         <f t="shared" si="1"/>
         <v>2496.5576923076924</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="11">
         <f t="shared" si="4"/>
         <v>2415.1701667345687</v>
       </c>
-      <c r="O76" s="12">
+      <c r="O76" s="11">
         <f t="shared" si="2"/>
         <v>2472.1299848213998</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P76" s="11">
         <f t="shared" si="3"/>
         <v>-56.959818086831092</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>3</v>
       </c>
       <c r="C77" s="1">
@@ -3852,29 +3963,29 @@
       <c r="J77" s="1">
         <v>6644600</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="11">
         <f t="shared" si="5"/>
         <v>2388.7916666666665</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="11">
         <f t="shared" si="1"/>
         <v>2488.6153846153848</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="11">
         <f t="shared" si="4"/>
         <v>2403.2209103138657</v>
       </c>
-      <c r="O77" s="12">
+      <c r="O77" s="11">
         <f t="shared" si="2"/>
         <v>2462.1573933531481</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P77" s="11">
         <f t="shared" si="3"/>
         <v>-58.936483039282393</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>2</v>
       </c>
       <c r="C78" s="1">
@@ -3901,29 +4012,29 @@
       <c r="J78" s="1">
         <v>5753400</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="11">
         <f>SUM(I67:I78)/12</f>
         <v>2383.0833333333335</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="11">
         <f>SUM(I53:I78)/26</f>
         <v>2480.4423076923076</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="11">
         <f t="shared" si="4"/>
         <v>2398.2638471886557</v>
       </c>
-      <c r="O78" s="12">
+      <c r="O78" s="11">
         <f t="shared" si="2"/>
         <v>2455.4049938455078</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P78" s="11">
         <f t="shared" si="3"/>
         <v>-57.141146656852015</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>1</v>
       </c>
       <c r="C79" s="1">
@@ -3950,23 +4061,23 @@
       <c r="J79" s="1">
         <v>8934200</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="11">
         <f>SUM(I68:I79)/12</f>
         <v>2375.2916666666665</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="11">
         <f>SUM(I54:I79)/26</f>
         <v>2470.2692307692309</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="11">
         <f t="shared" si="4"/>
         <v>2384.2232553134777</v>
       </c>
-      <c r="O79" s="12">
+      <c r="O79" s="11">
         <f t="shared" si="2"/>
         <v>2444.4120313384333</v>
       </c>
-      <c r="P79" s="12">
+      <c r="P79" s="11">
         <f t="shared" si="3"/>
         <v>-60.188776024955587</v>
       </c>
@@ -3981,7 +4092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1114978E-45C2-4ED7-82DC-8AB4C8E25BF4}">
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -3991,7 +4102,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4221,6 +4332,181 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5AADF3-F4FB-4334-8583-5DC4554997A4}">
+  <dimension ref="B2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4">
+        <v>165.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D4" s="4">
+        <f>D3-D2</f>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D5" s="4">
+        <f>D4/D2</f>
+        <v>6.2941554271034122E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D5*100</f>
+        <v>6.2941554271034121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D7/D6</f>
+        <v>3.7018469387755055</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F23" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F24" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F25" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A58A4-C2A6-49DB-AAB8-86A91D2B00F8}">
   <dimension ref="B1:R27"/>
   <sheetViews>
@@ -4541,40 +4827,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7">
-        <v>6503</v>
-      </c>
-      <c r="C10" s="7">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="6">
+        <v>6503</v>
+      </c>
+      <c r="C10" s="6">
         <v>20241211</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>45637</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>2650</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>2654</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2624</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>2645.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>3245400</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <f>IF(J10&gt;=0,J10)</f>
         <v>33.5</v>
       </c>
-      <c r="L10" s="6" t="b">
+      <c r="L10" t="b">
         <f>IF(J10&lt;0,J10*-1)</f>
         <v>0</v>
       </c>
@@ -5292,7 +5578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130C24E-319C-4123-8BC2-E941AD5F00AA}">
   <dimension ref="B1:R24"/>
   <sheetViews>
@@ -5613,40 +5899,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7">
-        <v>6503</v>
-      </c>
-      <c r="C10" s="7">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="6">
+        <v>6503</v>
+      </c>
+      <c r="C10" s="6">
         <v>20241211</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>45637</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>2650</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>2654</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2624</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>2645.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>3245400</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <f>IF(J10&gt;=0,J10)</f>
         <v>33.5</v>
       </c>
-      <c r="L10" s="6" t="b">
+      <c r="L10" t="b">
         <f>IF(J10&lt;0,J10*-1)</f>
         <v>0</v>
       </c>

--- a/ConsoleApp1/Doc/指数メモ.xlsx
+++ b/ConsoleApp1/Doc/指数メモ.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sator\source\repos\OptimalTraderDraft\33\ConsoleApp1\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\ConsoleApp1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D75D5-F64A-41D8-BB8F-632C24C2D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761C791-24DE-4CE9-A4C3-5C5595E955DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{27CFE7BD-B62E-481C-B357-7E0454D9DCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="前期比率" sheetId="6" r:id="rId1"/>
     <sheet name="MACD概要" sheetId="7" r:id="rId2"/>
     <sheet name="MACD算出" sheetId="8" r:id="rId3"/>
     <sheet name="グランビルの法則" sheetId="9" r:id="rId4"/>
-    <sheet name="PEGレシオ" sheetId="10" r:id="rId5"/>
-    <sheet name="RSI算出" sheetId="1" r:id="rId6"/>
-    <sheet name="RSI (2)" sheetId="5" r:id="rId7"/>
+    <sheet name="RSI算出" sheetId="1" r:id="rId5"/>
+    <sheet name="RSI (2)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>値幅</t>
     <rPh sb="0" eb="2">
@@ -363,107 +362,6 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>PEGレシオ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利益成長率</t>
-    <rPh sb="0" eb="2">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セイチョウリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今期予想</t>
-    <rPh sb="0" eb="2">
-      <t>コンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一株益</t>
-    <rPh sb="0" eb="2">
-      <t>ヒトカブ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PEGレシオは**「PER（株価収益率）÷ 1株当たりの利益成長率」**で計算されます。</t>
-  </si>
-  <si>
-    <t>例として、PERが30倍で1株当たりの利益成長率が20%の企業の場合、PEGレシオは1.5倍となります。</t>
-  </si>
-  <si>
-    <t>一般的にPEGレシオが1を下回ると割安、2を上回ると割高と判断され、企業の成長性を考慮した株価の割安性を測る指標です。﻿</t>
-  </si>
-  <si>
-    <t>計算方法</t>
-  </si>
-  <si>
-    <t>PER（株価収益率）の算出:</t>
-  </si>
-  <si>
-    <t>現在の株価 ÷ 1株当たりの予想利益（EPS）で求められます。﻿</t>
-  </si>
-  <si>
-    <t>1株当たりの利益成長率（EPS成長率）の算出:</t>
-  </si>
-  <si>
-    <t>企業の将来的な1株当たりの利益がどれくらい増加するかを示す数値です。﻿</t>
-  </si>
-  <si>
-    <t>PEGレシオの算出:</t>
-  </si>
-  <si>
-    <t>「PER ÷ 1株当たりの利益成長率」の計算式で算出します。﻿</t>
-  </si>
-  <si>
-    <t>計算例﻿</t>
-  </si>
-  <si>
-    <t>ある企業のPERが25倍</t>
-  </si>
-  <si>
-    <t>予想EPS成長率が40%</t>
-  </si>
-  <si>
-    <t>この場合、PEGレシオは「25 ÷ 40 = 0.63」となり、PEGレシオが1を下回っているため割安と判断されます。﻿</t>
-  </si>
-  <si>
-    <t>PEGレシオの目安</t>
-  </si>
-  <si>
-    <t>1未満:成長性に対して株価が割安。﻿</t>
-  </si>
-  <si>
-    <t>1以上:成長性に対して株価が割高、または妥当と判断される。﻿</t>
-  </si>
-  <si>
-    <t>2以上:株価が割高と判断されることが多い。﻿</t>
-  </si>
-  <si>
-    <t>ポイント</t>
-  </si>
-  <si>
-    <t>PEGレシオは利益成長を前提とした指標であり、減益決算の企業では計算ができない、または意味をなさない場合があるため注意が必要です。﻿</t>
-  </si>
-  <si>
-    <t>成長性の高い企業（特にテクノロジー企業など）の株価の割安性を判断する際に有効な指標です。﻿</t>
-  </si>
 </sst>
 </file>
 
@@ -475,7 +373,7 @@
     <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,15 +410,6 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -596,10 +485,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -618,9 +510,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,19 +1049,19 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>-10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>-10</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>10</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>-10</v>
       </c>
     </row>
@@ -1180,19 +1069,19 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>20</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>-5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>-20</v>
       </c>
     </row>
@@ -1200,23 +1089,23 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>(C4/C3)-1</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>(D4/D3)-1</f>
         <v>-3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f>(E4/E3)-1</f>
         <v>-0.5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f>(F4/F3)-1</f>
         <v>-0.5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f>(G4/G3)-1</f>
         <v>1</v>
       </c>
@@ -1225,23 +1114,23 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <f>IF(C3&gt;=0,C5,C5*(-1))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <f>IF(D3&gt;=0,D5,D5*(-1))</f>
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f>IF(E3&gt;=0,E5,E5*(-1))</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f>IF(F3&gt;=0,F5,F5*(-1))</f>
         <v>-0.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>IF(G3&gt;=0,G5,G5*(-1))</f>
         <v>-1</v>
       </c>
@@ -1334,38 +1223,38 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="3.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="10.69921875" style="11" customWidth="1"/>
-    <col min="17" max="18" width="8.796875" style="11"/>
+    <col min="12" max="16" width="10.69921875" style="12" customWidth="1"/>
+    <col min="17" max="18" width="8.796875" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>77</v>
       </c>
       <c r="C3" s="1">
@@ -1394,7 +1283,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>76</v>
       </c>
       <c r="C4" s="1">
@@ -1423,7 +1312,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>75</v>
       </c>
       <c r="C5" s="1">
@@ -1452,7 +1341,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>74</v>
       </c>
       <c r="C6" s="1">
@@ -1481,7 +1370,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>73</v>
       </c>
       <c r="C7" s="1">
@@ -1510,7 +1399,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>72</v>
       </c>
       <c r="C8" s="1">
@@ -1539,7 +1428,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>71</v>
       </c>
       <c r="C9" s="1">
@@ -1568,7 +1457,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>70</v>
       </c>
       <c r="C10" s="1">
@@ -1597,7 +1486,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>69</v>
       </c>
       <c r="C11" s="1">
@@ -1626,7 +1515,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>68</v>
       </c>
       <c r="C12" s="1">
@@ -1655,7 +1544,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>67</v>
       </c>
       <c r="C13" s="1">
@@ -1684,7 +1573,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>66</v>
       </c>
       <c r="C14" s="1">
@@ -1713,7 +1602,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>65</v>
       </c>
       <c r="C15" s="1">
@@ -1742,7 +1631,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>64</v>
       </c>
       <c r="C16" s="1">
@@ -1771,7 +1660,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>63</v>
       </c>
       <c r="C17" s="1">
@@ -1800,7 +1689,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>62</v>
       </c>
       <c r="C18" s="1">
@@ -1829,7 +1718,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>61</v>
       </c>
       <c r="C19" s="1">
@@ -1858,7 +1747,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+      <c r="B20" s="11">
         <v>60</v>
       </c>
       <c r="C20" s="1">
@@ -1887,7 +1776,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>59</v>
       </c>
       <c r="C21" s="1">
@@ -1916,7 +1805,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>58</v>
       </c>
       <c r="C22" s="1">
@@ -1945,7 +1834,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>57</v>
       </c>
       <c r="C23" s="1">
@@ -1974,7 +1863,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+      <c r="B24" s="11">
         <v>56</v>
       </c>
       <c r="C24" s="1">
@@ -2003,7 +1892,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>55</v>
       </c>
       <c r="C25" s="1">
@@ -2032,7 +1921,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+      <c r="B26" s="11">
         <v>54</v>
       </c>
       <c r="C26" s="1">
@@ -2061,7 +1950,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+      <c r="B27" s="11">
         <v>53</v>
       </c>
       <c r="C27" s="1">
@@ -2090,7 +1979,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+      <c r="B28" s="11">
         <v>52</v>
       </c>
       <c r="C28" s="1">
@@ -2119,7 +2008,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="10">
+      <c r="B29" s="11">
         <v>51</v>
       </c>
       <c r="C29" s="1">
@@ -2148,7 +2037,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+      <c r="B30" s="11">
         <v>50</v>
       </c>
       <c r="C30" s="1">
@@ -2177,7 +2066,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+      <c r="B31" s="11">
         <v>49</v>
       </c>
       <c r="C31" s="1">
@@ -2206,7 +2095,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+      <c r="B32" s="11">
         <v>48</v>
       </c>
       <c r="C32" s="1">
@@ -2235,7 +2124,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>47</v>
       </c>
       <c r="C33" s="1">
@@ -2264,7 +2153,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+      <c r="B34" s="11">
         <v>46</v>
       </c>
       <c r="C34" s="1">
@@ -2293,7 +2182,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+      <c r="B35" s="11">
         <v>45</v>
       </c>
       <c r="C35" s="1">
@@ -2322,7 +2211,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+      <c r="B36" s="11">
         <v>44</v>
       </c>
       <c r="C36" s="1">
@@ -2351,7 +2240,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+      <c r="B37" s="11">
         <v>43</v>
       </c>
       <c r="C37" s="1">
@@ -2380,7 +2269,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+      <c r="B38" s="11">
         <v>42</v>
       </c>
       <c r="C38" s="1">
@@ -2409,7 +2298,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+      <c r="B39" s="11">
         <v>41</v>
       </c>
       <c r="C39" s="1">
@@ -2438,7 +2327,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+      <c r="B40" s="11">
         <v>40</v>
       </c>
       <c r="C40" s="1">
@@ -2467,7 +2356,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B41" s="10">
+      <c r="B41" s="11">
         <v>39</v>
       </c>
       <c r="C41" s="1">
@@ -2496,7 +2385,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+      <c r="B42" s="11">
         <v>38</v>
       </c>
       <c r="C42" s="1">
@@ -2525,7 +2414,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+      <c r="B43" s="11">
         <v>37</v>
       </c>
       <c r="C43" s="1">
@@ -2554,7 +2443,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+      <c r="B44" s="11">
         <v>36</v>
       </c>
       <c r="C44" s="1">
@@ -2583,7 +2472,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+      <c r="B45" s="11">
         <v>35</v>
       </c>
       <c r="C45" s="1">
@@ -2612,7 +2501,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+      <c r="B46" s="11">
         <v>34</v>
       </c>
       <c r="C46" s="1">
@@ -2641,7 +2530,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+      <c r="B47" s="11">
         <v>33</v>
       </c>
       <c r="C47" s="1">
@@ -2670,7 +2559,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+      <c r="B48" s="11">
         <v>32</v>
       </c>
       <c r="C48" s="1">
@@ -2699,7 +2588,7 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+      <c r="B49" s="11">
         <v>31</v>
       </c>
       <c r="C49" s="1">
@@ -2728,7 +2617,7 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+      <c r="B50" s="11">
         <v>30</v>
       </c>
       <c r="C50" s="1">
@@ -2757,7 +2646,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+      <c r="B51" s="11">
         <v>29</v>
       </c>
       <c r="C51" s="1">
@@ -2786,7 +2675,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+      <c r="B52" s="11">
         <v>28</v>
       </c>
       <c r="C52" s="1">
@@ -2815,7 +2704,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B53" s="10">
+      <c r="B53" s="11">
         <v>27</v>
       </c>
       <c r="C53" s="1">
@@ -2842,26 +2731,26 @@
       <c r="J53" s="1">
         <v>1941800</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="12">
         <f>SUM(I42:I53)/12</f>
         <v>2601.625</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="12">
         <f>SUM(I28:I53)/26</f>
         <v>2626.5576923076924</v>
       </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12">
+      <c r="N53" s="13"/>
+      <c r="O53" s="13">
         <f>M53</f>
         <v>2626.5576923076924</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="12">
         <f>N53-O53</f>
         <v>-2626.5576923076924</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+      <c r="B54" s="11">
         <v>26</v>
       </c>
       <c r="C54" s="1">
@@ -2888,25 +2777,25 @@
       <c r="J54" s="1">
         <v>5855300</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="12">
         <f t="shared" ref="L54:L68" si="0">SUM(I43:I54)/12</f>
         <v>2598.25</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="12">
         <f t="shared" ref="M54:M77" si="1">SUM(I29:I54)/26</f>
         <v>2627.8846153846152</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="12">
         <f>((O53*25)+(I54*2))/27</f>
         <v>2628.0349002849002</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="12">
         <f>N54-O54</f>
         <v>-2628.0349002849002</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+      <c r="B55" s="11">
         <v>25</v>
       </c>
       <c r="C55" s="1">
@@ -2933,25 +2822,25 @@
       <c r="J55" s="1">
         <v>4003800</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="12">
         <f t="shared" si="0"/>
         <v>2596.4583333333335</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="12">
         <f t="shared" si="1"/>
         <v>2628.5769230769229</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="12">
         <f t="shared" ref="O55:O79" si="2">((O54*25)+(I55*2))/27</f>
         <v>2630.6619447082408</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="12">
         <f>N55-O55</f>
         <v>-2630.6619447082408</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+      <c r="B56" s="11">
         <v>24</v>
       </c>
       <c r="C56" s="1">
@@ -2978,25 +2867,25 @@
       <c r="J56" s="1">
         <v>4266000</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="12">
         <f t="shared" si="0"/>
         <v>2596.0833333333335</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="12">
         <f t="shared" si="1"/>
         <v>2627.5192307692309</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="12">
         <f t="shared" si="2"/>
         <v>2633.6499488039267</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="12">
         <f>N56-O56</f>
         <v>-2633.6499488039267</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+      <c r="B57" s="11">
         <v>23</v>
       </c>
       <c r="C57" s="1">
@@ -3023,25 +2912,25 @@
       <c r="J57" s="1">
         <v>6898600</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="12">
         <f t="shared" si="0"/>
         <v>2594.4166666666665</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="12">
         <f t="shared" si="1"/>
         <v>2627.6923076923076</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="12">
         <f t="shared" si="2"/>
         <v>2634.0092118554876</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="12">
         <f>N57-O57</f>
         <v>-2634.0092118554876</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+      <c r="B58" s="11">
         <v>22</v>
       </c>
       <c r="C58" s="1">
@@ -3068,25 +2957,25 @@
       <c r="J58" s="1">
         <v>8431500</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="12">
         <f t="shared" si="0"/>
         <v>2594.75</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="12">
         <f t="shared" si="1"/>
         <v>2625.4615384615386</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="12">
         <f t="shared" si="2"/>
         <v>2630.8233443106369</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="12">
         <f t="shared" ref="P58:P79" si="3">N58-O58</f>
         <v>-2630.8233443106369</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+      <c r="B59" s="11">
         <v>21</v>
       </c>
       <c r="C59" s="1">
@@ -3113,25 +3002,25 @@
       <c r="J59" s="1">
         <v>5225900</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="12">
         <f t="shared" si="0"/>
         <v>2595.2916666666665</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="12">
         <f t="shared" si="1"/>
         <v>2623.4038461538462</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="12">
         <f t="shared" si="2"/>
         <v>2626.8364299172563</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="12">
         <f t="shared" si="3"/>
         <v>-2626.8364299172563</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+      <c r="B60" s="11">
         <v>20</v>
       </c>
       <c r="C60" s="1">
@@ -3158,25 +3047,25 @@
       <c r="J60" s="1">
         <v>4727500</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="12">
         <f t="shared" si="0"/>
         <v>2595.0833333333335</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="12">
         <f t="shared" si="1"/>
         <v>2620.2307692307691</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O60" s="12">
         <f t="shared" si="2"/>
         <v>2621.6633610344966</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P60" s="12">
         <f t="shared" si="3"/>
         <v>-2621.6633610344966</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+      <c r="B61" s="11">
         <v>19</v>
       </c>
       <c r="C61" s="1">
@@ -3203,25 +3092,25 @@
       <c r="J61" s="1">
         <v>5999200</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="12">
         <f t="shared" si="0"/>
         <v>2597.0833333333335</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="12">
         <f t="shared" si="1"/>
         <v>2618.8653846153848</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O61" s="12">
         <f t="shared" si="2"/>
         <v>2617.9475565134226</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P61" s="12">
         <f t="shared" si="3"/>
         <v>-2617.9475565134226</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+      <c r="B62" s="11">
         <v>18</v>
       </c>
       <c r="C62" s="1">
@@ -3248,25 +3137,25 @@
       <c r="J62" s="1">
         <v>6817800</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="12">
         <f t="shared" si="0"/>
         <v>2596.75</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="12">
         <f t="shared" si="1"/>
         <v>2616.8269230769229</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O62" s="12">
         <f t="shared" si="2"/>
         <v>2612.6181078827981</v>
       </c>
-      <c r="P62" s="11">
+      <c r="P62" s="12">
         <f t="shared" si="3"/>
         <v>-2612.6181078827981</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+      <c r="B63" s="11">
         <v>17</v>
       </c>
       <c r="C63" s="1">
@@ -3293,25 +3182,25 @@
       <c r="J63" s="1">
         <v>5643900</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="12">
         <f t="shared" si="0"/>
         <v>2598.1666666666665</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M63" s="12">
         <f t="shared" si="1"/>
         <v>2613.0192307692309</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O63" s="12">
         <f t="shared" si="2"/>
         <v>2608.794544335924</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="12">
         <f t="shared" si="3"/>
         <v>-2608.794544335924</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+      <c r="B64" s="11">
         <v>16</v>
       </c>
       <c r="C64" s="1">
@@ -3338,25 +3227,25 @@
       <c r="J64" s="1">
         <v>11325900</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="12">
         <f t="shared" si="0"/>
         <v>2585.875</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="12">
         <f t="shared" si="1"/>
         <v>2604.6923076923076</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O64" s="12">
         <f t="shared" si="2"/>
         <v>2595.9949484591889</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P64" s="12">
         <f t="shared" si="3"/>
         <v>-2595.9949484591889</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B65" s="10">
+      <c r="B65" s="11">
         <v>15</v>
       </c>
       <c r="C65" s="1">
@@ -3383,25 +3272,25 @@
       <c r="J65" s="1">
         <v>6014600</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="12">
         <f t="shared" si="0"/>
         <v>2573.625</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M65" s="12">
         <f t="shared" si="1"/>
         <v>2595.5769230769229</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O65" s="12">
         <f t="shared" si="2"/>
         <v>2583.2916189436937</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P65" s="12">
         <f t="shared" si="3"/>
         <v>-2583.2916189436937</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+      <c r="B66" s="11">
         <v>14</v>
       </c>
       <c r="C66" s="1">
@@ -3428,25 +3317,25 @@
       <c r="J66" s="1">
         <v>4369400</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="12">
         <f t="shared" si="0"/>
         <v>2556.375</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="12">
         <f t="shared" si="1"/>
         <v>2586.3269230769229</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O66" s="12">
         <f t="shared" si="2"/>
         <v>2572.6403879108279</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P66" s="12">
         <f t="shared" si="3"/>
         <v>-2572.6403879108279</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+      <c r="B67" s="11">
         <v>13</v>
       </c>
       <c r="C67" s="1">
@@ -3473,29 +3362,29 @@
       <c r="J67" s="1">
         <v>4817600</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="12">
         <f t="shared" si="0"/>
         <v>2534.4583333333335</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="12">
         <f t="shared" si="1"/>
         <v>2574.7307692307691</v>
       </c>
-      <c r="N67" s="11">
+      <c r="N67" s="12">
         <f>L67</f>
         <v>2534.4583333333335</v>
       </c>
-      <c r="O67" s="11">
+      <c r="O67" s="12">
         <f t="shared" si="2"/>
         <v>2559.8892480655813</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P67" s="12">
         <f t="shared" si="3"/>
         <v>-25.430914732247857</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+      <c r="B68" s="11">
         <v>12</v>
       </c>
       <c r="C68" s="1">
@@ -3522,29 +3411,29 @@
       <c r="J68" s="1">
         <v>6577900</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="12">
         <f t="shared" si="0"/>
         <v>2513.7083333333335</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="12">
         <f t="shared" si="1"/>
         <v>2564.5384615384614</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N68" s="12">
         <f t="shared" ref="N68:N79" si="4">((N67*11)+(I68*2))/13</f>
         <v>2517.1570512820513</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O68" s="12">
         <f t="shared" si="2"/>
         <v>2549.6752296903528</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P68" s="12">
         <f t="shared" si="3"/>
         <v>-32.518178408301537</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+      <c r="B69" s="11">
         <v>11</v>
       </c>
       <c r="C69" s="1">
@@ -3571,29 +3460,29 @@
       <c r="J69" s="1">
         <v>4847100</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="12">
         <f>SUM(I58:I69)/12</f>
         <v>2495.7083333333335</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M69" s="12">
         <f t="shared" si="1"/>
         <v>2554.4423076923076</v>
       </c>
-      <c r="N69" s="11">
+      <c r="N69" s="12">
         <f t="shared" si="4"/>
         <v>2502.5944280078893</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O69" s="12">
         <f t="shared" si="2"/>
         <v>2540.2548423058824</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P69" s="12">
         <f t="shared" si="3"/>
         <v>-37.660414297993157</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+      <c r="B70" s="11">
         <v>10</v>
       </c>
       <c r="C70" s="1">
@@ -3620,29 +3509,29 @@
       <c r="J70" s="1">
         <v>7763700</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="12">
         <f t="shared" ref="L70:L77" si="5">SUM(I59:I70)/12</f>
         <v>2478.5833333333335</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M70" s="12">
         <f t="shared" si="1"/>
         <v>2543.2884615384614</v>
       </c>
-      <c r="N70" s="11">
+      <c r="N70" s="12">
         <f t="shared" si="4"/>
         <v>2484.57990062206</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O70" s="12">
         <f t="shared" si="2"/>
         <v>2528.7915206535949</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P70" s="12">
         <f t="shared" si="3"/>
         <v>-44.211620031534949</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+      <c r="B71" s="11">
         <v>9</v>
       </c>
       <c r="C71" s="1">
@@ -3669,29 +3558,29 @@
       <c r="J71" s="1">
         <v>5261500</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="12">
         <f t="shared" si="5"/>
         <v>2463.6666666666665</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M71" s="12">
         <f t="shared" si="1"/>
         <v>2533.2692307692309</v>
       </c>
-      <c r="N71" s="11">
+      <c r="N71" s="12">
         <f t="shared" si="4"/>
         <v>2471.2599159109736</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O71" s="12">
         <f t="shared" si="2"/>
         <v>2519.1032598644401</v>
       </c>
-      <c r="P71" s="11">
+      <c r="P71" s="12">
         <f t="shared" si="3"/>
         <v>-47.843343953466501</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+      <c r="B72" s="11">
         <v>8</v>
       </c>
       <c r="C72" s="1">
@@ -3718,29 +3607,29 @@
       <c r="J72" s="1">
         <v>6407500</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="12">
         <f t="shared" si="5"/>
         <v>2449.125</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="12">
         <f t="shared" si="1"/>
         <v>2525.4038461538462</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N72" s="12">
         <f t="shared" si="4"/>
         <v>2457.6045442323625</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O72" s="12">
         <f t="shared" si="2"/>
         <v>2508.9844998744816</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P72" s="12">
         <f t="shared" si="3"/>
         <v>-51.379955642119057</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+      <c r="B73" s="11">
         <v>7</v>
       </c>
       <c r="C73" s="1">
@@ -3767,29 +3656,29 @@
       <c r="J73" s="1">
         <v>10222300</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="12">
         <f t="shared" si="5"/>
         <v>2432</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M73" s="12">
         <f t="shared" si="1"/>
         <v>2517.5384615384614</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N73" s="12">
         <f t="shared" si="4"/>
         <v>2443.5115374273837</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O73" s="12">
         <f t="shared" si="2"/>
         <v>2498.3930554393351</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P73" s="12">
         <f t="shared" si="3"/>
         <v>-54.881518011951357</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+      <c r="B74" s="11">
         <v>6</v>
       </c>
       <c r="C74" s="1">
@@ -3816,29 +3705,29 @@
       <c r="J74" s="1">
         <v>8266300</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74" s="12">
         <f t="shared" si="5"/>
         <v>2416.8333333333335</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M74" s="12">
         <f t="shared" si="1"/>
         <v>2510.0192307692309</v>
       </c>
-      <c r="N74" s="11">
+      <c r="N74" s="12">
         <f t="shared" si="4"/>
         <v>2431.2789932077862</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O74" s="12">
         <f t="shared" si="2"/>
         <v>2488.4380142956807</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P74" s="12">
         <f t="shared" si="3"/>
         <v>-57.159021087894416</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+      <c r="B75" s="11">
         <v>5</v>
       </c>
       <c r="C75" s="1">
@@ -3865,29 +3754,29 @@
       <c r="J75" s="1">
         <v>7466000</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="12">
         <f t="shared" si="5"/>
         <v>2400.4166666666665</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M75" s="12">
         <f t="shared" si="1"/>
         <v>2502.9615384615386</v>
       </c>
-      <c r="N75" s="11">
+      <c r="N75" s="12">
         <f t="shared" si="4"/>
         <v>2420.9283788681269</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O75" s="12">
         <f t="shared" si="2"/>
         <v>2479.2203836071121</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P75" s="12">
         <f t="shared" si="3"/>
         <v>-58.29200473898527</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+      <c r="B76" s="11">
         <v>4</v>
       </c>
       <c r="C76" s="1">
@@ -3914,29 +3803,29 @@
       <c r="J76" s="1">
         <v>8275200</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L76" s="12">
         <f t="shared" si="5"/>
         <v>2396.0416666666665</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M76" s="12">
         <f t="shared" si="1"/>
         <v>2496.5576923076924</v>
       </c>
-      <c r="N76" s="11">
+      <c r="N76" s="12">
         <f t="shared" si="4"/>
         <v>2415.1701667345687</v>
       </c>
-      <c r="O76" s="11">
+      <c r="O76" s="12">
         <f t="shared" si="2"/>
         <v>2472.1299848213998</v>
       </c>
-      <c r="P76" s="11">
+      <c r="P76" s="12">
         <f t="shared" si="3"/>
         <v>-56.959818086831092</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+      <c r="B77" s="11">
         <v>3</v>
       </c>
       <c r="C77" s="1">
@@ -3963,29 +3852,29 @@
       <c r="J77" s="1">
         <v>6644600</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="12">
         <f t="shared" si="5"/>
         <v>2388.7916666666665</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="12">
         <f t="shared" si="1"/>
         <v>2488.6153846153848</v>
       </c>
-      <c r="N77" s="11">
+      <c r="N77" s="12">
         <f t="shared" si="4"/>
         <v>2403.2209103138657</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O77" s="12">
         <f t="shared" si="2"/>
         <v>2462.1573933531481</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P77" s="12">
         <f t="shared" si="3"/>
         <v>-58.936483039282393</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+      <c r="B78" s="11">
         <v>2</v>
       </c>
       <c r="C78" s="1">
@@ -4012,29 +3901,29 @@
       <c r="J78" s="1">
         <v>5753400</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="12">
         <f>SUM(I67:I78)/12</f>
         <v>2383.0833333333335</v>
       </c>
-      <c r="M78" s="11">
+      <c r="M78" s="12">
         <f>SUM(I53:I78)/26</f>
         <v>2480.4423076923076</v>
       </c>
-      <c r="N78" s="11">
+      <c r="N78" s="12">
         <f t="shared" si="4"/>
         <v>2398.2638471886557</v>
       </c>
-      <c r="O78" s="11">
+      <c r="O78" s="12">
         <f t="shared" si="2"/>
         <v>2455.4049938455078</v>
       </c>
-      <c r="P78" s="11">
+      <c r="P78" s="12">
         <f t="shared" si="3"/>
         <v>-57.141146656852015</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+      <c r="B79" s="11">
         <v>1</v>
       </c>
       <c r="C79" s="1">
@@ -4061,23 +3950,23 @@
       <c r="J79" s="1">
         <v>8934200</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="12">
         <f>SUM(I68:I79)/12</f>
         <v>2375.2916666666665</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M79" s="12">
         <f>SUM(I54:I79)/26</f>
         <v>2470.2692307692309</v>
       </c>
-      <c r="N79" s="11">
+      <c r="N79" s="12">
         <f t="shared" si="4"/>
         <v>2384.2232553134777</v>
       </c>
-      <c r="O79" s="11">
+      <c r="O79" s="12">
         <f t="shared" si="2"/>
         <v>2444.4120313384333</v>
       </c>
-      <c r="P79" s="11">
+      <c r="P79" s="12">
         <f t="shared" si="3"/>
         <v>-60.188776024955587</v>
       </c>
@@ -4092,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1114978E-45C2-4ED7-82DC-8AB4C8E25BF4}">
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -4102,7 +3991,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4332,181 +4221,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5AADF3-F4FB-4334-8583-5DC4554997A4}">
-  <dimension ref="B2:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4">
-        <v>155.69999999999999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4">
-        <v>165.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D4" s="4">
-        <f>D3-D2</f>
-        <v>9.8000000000000114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D5" s="4">
-        <f>D4/D2</f>
-        <v>6.2941554271034122E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4">
-        <f>D5*100</f>
-        <v>6.2941554271034121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="4">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4">
-        <f>D7/D6</f>
-        <v>3.7018469387755055</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F22" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F23" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F24" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F25" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A58A4-C2A6-49DB-AAB8-86A91D2B00F8}">
   <dimension ref="B1:R27"/>
   <sheetViews>
@@ -4827,40 +4541,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="6">
-        <v>6503</v>
-      </c>
-      <c r="C10" s="6">
+    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="7">
+        <v>6503</v>
+      </c>
+      <c r="C10" s="7">
         <v>20241211</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>45637</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>2650</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>2654</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>2624</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>2645.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>3245400</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <f>IF(J10&gt;=0,J10)</f>
         <v>33.5</v>
       </c>
-      <c r="L10" t="b">
+      <c r="L10" s="6" t="b">
         <f>IF(J10&lt;0,J10*-1)</f>
         <v>0</v>
       </c>
@@ -5578,7 +5292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130C24E-319C-4123-8BC2-E941AD5F00AA}">
   <dimension ref="B1:R24"/>
   <sheetViews>
@@ -5899,40 +5613,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="6">
-        <v>6503</v>
-      </c>
-      <c r="C10" s="6">
+    <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="7">
+        <v>6503</v>
+      </c>
+      <c r="C10" s="7">
         <v>20241211</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>45637</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>2650</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>2654</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>2624</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>2645.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>3245400</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <f>IF(J10&gt;=0,J10)</f>
         <v>33.5</v>
       </c>
-      <c r="L10" t="b">
+      <c r="L10" s="6" t="b">
         <f>IF(J10&lt;0,J10*-1)</f>
         <v>0</v>
       </c>
